--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spp1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Spp1-Cd44.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H2">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I2">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J2">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N2">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O2">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P2">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q2">
-        <v>14.78389828006033</v>
+        <v>1178.87104693117</v>
       </c>
       <c r="R2">
-        <v>133.055084520543</v>
+        <v>10609.83942238052</v>
       </c>
       <c r="S2">
-        <v>4.961630210844401E-06</v>
+        <v>6.766842312959887E-05</v>
       </c>
       <c r="T2">
-        <v>4.961630210844401E-06</v>
+        <v>6.766842312959885E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H3">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I3">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J3">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>502.283203</v>
       </c>
       <c r="O3">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P3">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q3">
-        <v>236.7500157399097</v>
+        <v>4515.660551059159</v>
       </c>
       <c r="R3">
-        <v>2130.750141659187</v>
+        <v>40640.94495953243</v>
       </c>
       <c r="S3">
-        <v>7.945577061344807E-05</v>
+        <v>0.0002592036081250453</v>
       </c>
       <c r="T3">
-        <v>7.945577061344807E-05</v>
+        <v>0.0002592036081250453</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H4">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I4">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J4">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N4">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O4">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P4">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q4">
-        <v>321.688671006154</v>
+        <v>12309.12509002632</v>
       </c>
       <c r="R4">
-        <v>2895.198039055386</v>
+        <v>110782.1258102369</v>
       </c>
       <c r="S4">
-        <v>0.0001079620678061108</v>
+        <v>0.0007065565713191154</v>
       </c>
       <c r="T4">
-        <v>0.0001079620678061108</v>
+        <v>0.0007065565713191153</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H5">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I5">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J5">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N5">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O5">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P5">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q5">
-        <v>78.49391296373902</v>
+        <v>3065.190238747145</v>
       </c>
       <c r="R5">
-        <v>706.4452166736511</v>
+        <v>27586.7121487243</v>
       </c>
       <c r="S5">
-        <v>2.634337456539163E-05</v>
+        <v>0.0001759451049274674</v>
       </c>
       <c r="T5">
-        <v>2.634337456539162E-05</v>
+        <v>0.0001759451049274674</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H6">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I6">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J6">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N6">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O6">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P6">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q6">
-        <v>941.4490990582725</v>
+        <v>20232.86511965744</v>
       </c>
       <c r="R6">
-        <v>8473.041891524452</v>
+        <v>182095.7860769169</v>
       </c>
       <c r="S6">
-        <v>0.0003159601211650587</v>
+        <v>0.001161387483054388</v>
       </c>
       <c r="T6">
-        <v>0.0003159601211650587</v>
+        <v>0.001161387483054387</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1.414043</v>
+        <v>26.97080366666667</v>
       </c>
       <c r="H7">
-        <v>4.242129</v>
+        <v>80.91241099999999</v>
       </c>
       <c r="I7">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="J7">
-        <v>0.0006049102259513945</v>
+        <v>0.002722382690220834</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N7">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O7">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P7">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q7">
-        <v>209.2523319397177</v>
+        <v>6125.699200053205</v>
       </c>
       <c r="R7">
-        <v>1883.270987457459</v>
+        <v>55131.29280047885</v>
       </c>
       <c r="S7">
-        <v>7.022726159054083E-05</v>
+        <v>0.0003516214996652199</v>
       </c>
       <c r="T7">
-        <v>7.022726159054083E-05</v>
+        <v>0.0003516214996652198</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I8">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J8">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N8">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O8">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P8">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q8">
-        <v>237.2671901251683</v>
+        <v>991.9362267719965</v>
       </c>
       <c r="R8">
-        <v>2135.404711126515</v>
+        <v>8927.426040947968</v>
       </c>
       <c r="S8">
-        <v>7.962933972259398E-05</v>
+        <v>5.693817019725677E-05</v>
       </c>
       <c r="T8">
-        <v>7.962933972259399E-05</v>
+        <v>5.693817019725676E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I9">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J9">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>502.283203</v>
       </c>
       <c r="O9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q9">
         <v>3799.607514376682</v>
@@ -1013,10 +1013,10 @@
         <v>34196.46762939014</v>
       </c>
       <c r="S9">
-        <v>0.001275187847991998</v>
+        <v>0.0002181014197257291</v>
       </c>
       <c r="T9">
-        <v>0.001275187847991998</v>
+        <v>0.0002181014197257291</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I10">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J10">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N10">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O10">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P10">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q10">
-        <v>5162.790328967169</v>
+        <v>10357.25419540151</v>
       </c>
       <c r="R10">
-        <v>46465.11296070451</v>
+        <v>93215.28775861359</v>
       </c>
       <c r="S10">
-        <v>0.001732686195697652</v>
+        <v>0.0005945171536613057</v>
       </c>
       <c r="T10">
-        <v>0.001732686195697652</v>
+        <v>0.0005945171536613057</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I11">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J11">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N11">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O11">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P11">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q11">
-        <v>1259.750968116095</v>
+        <v>2579.139803014198</v>
       </c>
       <c r="R11">
-        <v>11337.75871304485</v>
+        <v>23212.25822712778</v>
       </c>
       <c r="S11">
-        <v>0.0004227855429697795</v>
+        <v>0.000148045304832179</v>
       </c>
       <c r="T11">
-        <v>0.0004227855429697795</v>
+        <v>0.000148045304832179</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I12">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J12">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N12">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O12">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P12">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q12">
-        <v>15109.34248517543</v>
+        <v>17024.51844569862</v>
       </c>
       <c r="R12">
-        <v>135984.0823665788</v>
+        <v>153220.6660112876</v>
       </c>
       <c r="S12">
-        <v>0.005070852675004691</v>
+        <v>0.0009772250499833152</v>
       </c>
       <c r="T12">
-        <v>0.005070852675004692</v>
+        <v>0.0009772250499833152</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>68.08204499999999</v>
       </c>
       <c r="I13">
-        <v>0.009708220854241584</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="J13">
-        <v>0.009708220854241585</v>
+        <v>0.002290691607531456</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N13">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O13">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P13">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q13">
-        <v>3358.296430748521</v>
+        <v>5154.340643668204</v>
       </c>
       <c r="R13">
-        <v>30224.66787673669</v>
+        <v>46389.06579301384</v>
       </c>
       <c r="S13">
-        <v>0.001127079252854869</v>
+        <v>0.0002958645091316706</v>
       </c>
       <c r="T13">
-        <v>0.001127079252854869</v>
+        <v>0.0002958645091316706</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H14">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I14">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J14">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N14">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O14">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P14">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q14">
-        <v>10108.18666776506</v>
+        <v>53061.07201522359</v>
       </c>
       <c r="R14">
-        <v>90973.6800098855</v>
+        <v>477549.6481370123</v>
       </c>
       <c r="S14">
-        <v>0.003392412704522005</v>
+        <v>0.003045760672622497</v>
       </c>
       <c r="T14">
-        <v>0.003392412704522005</v>
+        <v>0.003045760672622497</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H15">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I15">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J15">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>502.283203</v>
       </c>
       <c r="O15">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P15">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q15">
-        <v>161872.9584958668</v>
+        <v>203250.2115645258</v>
       </c>
       <c r="R15">
-        <v>1456856.626462801</v>
+        <v>1829251.904080732</v>
       </c>
       <c r="S15">
-        <v>0.0543262504907181</v>
+        <v>0.01166677335331305</v>
       </c>
       <c r="T15">
-        <v>0.05432625049071811</v>
+        <v>0.01166677335331305</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H16">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I16">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J16">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N16">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O16">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P16">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q16">
-        <v>219948.0187049957</v>
+        <v>554034.6202805818</v>
       </c>
       <c r="R16">
-        <v>1979532.168344962</v>
+        <v>4986311.582525236</v>
       </c>
       <c r="S16">
-        <v>0.07381684544555879</v>
+        <v>0.03180216293477432</v>
       </c>
       <c r="T16">
-        <v>0.0738168454455588</v>
+        <v>0.03180216293477432</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H17">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I17">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J17">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N17">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O17">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P17">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q17">
-        <v>53668.60008709011</v>
+        <v>137964.4367566004</v>
       </c>
       <c r="R17">
-        <v>483017.400783811</v>
+        <v>1241679.930809404</v>
       </c>
       <c r="S17">
-        <v>0.01801174105242464</v>
+        <v>0.00791930203696614</v>
       </c>
       <c r="T17">
-        <v>0.01801174105242464</v>
+        <v>0.00791930203696614</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H18">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I18">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J18">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N18">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O18">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P18">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q18">
-        <v>643696.4764777464</v>
+        <v>910682.7383564807</v>
       </c>
       <c r="R18">
-        <v>5793268.288299718</v>
+        <v>8196144.645208327</v>
       </c>
       <c r="S18">
-        <v>0.2160312404620417</v>
+        <v>0.05227413552682337</v>
       </c>
       <c r="T18">
-        <v>0.2160312404620417</v>
+        <v>0.05227413552682337</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>966.8228453333332</v>
+        <v>1213.957845</v>
       </c>
       <c r="H19">
-        <v>2900.468536</v>
+        <v>3641.873535</v>
       </c>
       <c r="I19">
-        <v>0.4135949372300253</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="J19">
-        <v>0.4135949372300254</v>
+        <v>0.1225346439331459</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N19">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O19">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P19">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q19">
-        <v>143071.982223025</v>
+        <v>275718.1688733072</v>
       </c>
       <c r="R19">
-        <v>1287647.840007225</v>
+        <v>2481463.519859765</v>
       </c>
       <c r="S19">
-        <v>0.0480164470747601</v>
+        <v>0.01582650940864654</v>
       </c>
       <c r="T19">
-        <v>0.0480164470747601</v>
+        <v>0.01582650940864654</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H20">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I20">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J20">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N20">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O20">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P20">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q20">
-        <v>586.7192708400817</v>
+        <v>6565.770054480463</v>
       </c>
       <c r="R20">
-        <v>5280.473437560735</v>
+        <v>59091.93049032416</v>
       </c>
       <c r="S20">
-        <v>0.0001969090969335908</v>
+        <v>0.0003768820240134155</v>
       </c>
       <c r="T20">
-        <v>0.0001969090969335909</v>
+        <v>0.0003768820240134155</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H21">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I21">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J21">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>502.283203</v>
       </c>
       <c r="O21">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P21">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q21">
-        <v>9395.748940835569</v>
+        <v>25150.15437822867</v>
       </c>
       <c r="R21">
-        <v>84561.74046752011</v>
+        <v>226351.389404058</v>
       </c>
       <c r="S21">
-        <v>0.003153311184590265</v>
+        <v>0.001443644996347152</v>
       </c>
       <c r="T21">
-        <v>0.003153311184590266</v>
+        <v>0.001443644996347152</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H22">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I22">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J22">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N22">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O22">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P22">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q22">
-        <v>12766.65591948833</v>
+        <v>68556.17085798844</v>
       </c>
       <c r="R22">
-        <v>114899.9032753949</v>
+        <v>617005.537721896</v>
       </c>
       <c r="S22">
-        <v>0.004284622668638265</v>
+        <v>0.003935195448085594</v>
       </c>
       <c r="T22">
-        <v>0.004284622668638266</v>
+        <v>0.003935195448085594</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H23">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I23">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J23">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N23">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O23">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P23">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q23">
-        <v>3115.138545128155</v>
+        <v>17071.70121214019</v>
       </c>
       <c r="R23">
-        <v>28036.2469061534</v>
+        <v>153645.3109092617</v>
       </c>
       <c r="S23">
-        <v>0.00104547293438295</v>
+        <v>0.0009799333898075093</v>
       </c>
       <c r="T23">
-        <v>0.00104547293438295</v>
+        <v>0.0009799333898075093</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H24">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I24">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J24">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N24">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O24">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P24">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q24">
-        <v>37362.69815096882</v>
+        <v>112687.7619607409</v>
       </c>
       <c r="R24">
-        <v>336264.2833587194</v>
+        <v>1014189.857646668</v>
       </c>
       <c r="S24">
-        <v>0.01253931056563997</v>
+        <v>0.006468394637172012</v>
       </c>
       <c r="T24">
-        <v>0.01253931056563997</v>
+        <v>0.006468394637172012</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>56.118235</v>
+        <v>150.2149836666667</v>
       </c>
       <c r="H25">
-        <v>168.354705</v>
+        <v>450.644951</v>
       </c>
       <c r="I25">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="J25">
-        <v>0.0240066916026199</v>
+        <v>0.01516242068275306</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N25">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O25">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P25">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q25">
-        <v>8304.465661999728</v>
+        <v>34117.32985992366</v>
       </c>
       <c r="R25">
-        <v>74740.19095799755</v>
+        <v>307055.968739313</v>
       </c>
       <c r="S25">
-        <v>0.002787065152434858</v>
+        <v>0.001958370187327375</v>
       </c>
       <c r="T25">
-        <v>0.002787065152434858</v>
+        <v>0.001958370187327375</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H26">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I26">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J26">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N26">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O26">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P26">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q26">
-        <v>8818.786705592476</v>
+        <v>45170.06040439932</v>
       </c>
       <c r="R26">
-        <v>79369.08035033228</v>
+        <v>406530.5436395939</v>
       </c>
       <c r="S26">
-        <v>0.002959676650405229</v>
+        <v>0.002592808406136806</v>
       </c>
       <c r="T26">
-        <v>0.002959676650405229</v>
+        <v>0.002592808406136805</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H27">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I27">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J27">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>502.283203</v>
       </c>
       <c r="O27">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P27">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q27">
-        <v>141224.4491814377</v>
+        <v>173023.7250190221</v>
       </c>
       <c r="R27">
-        <v>1271020.04263294</v>
+        <v>1557213.525171199</v>
       </c>
       <c r="S27">
-        <v>0.04739639574722652</v>
+        <v>0.009931741615442486</v>
       </c>
       <c r="T27">
-        <v>0.04739639574722653</v>
+        <v>0.009931741615442486</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H28">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I28">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J28">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N28">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O28">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P28">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q28">
-        <v>191891.4566014726</v>
+        <v>471641.0037291039</v>
       </c>
       <c r="R28">
-        <v>1727023.109413253</v>
+        <v>4244769.033561935</v>
       </c>
       <c r="S28">
-        <v>0.06440077104432822</v>
+        <v>0.02707268372456105</v>
       </c>
       <c r="T28">
-        <v>0.06440077104432823</v>
+        <v>0.02707268372456105</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H29">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I29">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J29">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N29">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O29">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P29">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q29">
-        <v>46822.63520766929</v>
+        <v>117446.9663968833</v>
       </c>
       <c r="R29">
-        <v>421403.7168690236</v>
+        <v>1057022.69757195</v>
       </c>
       <c r="S29">
-        <v>0.01571416395031978</v>
+        <v>0.006741577917381922</v>
       </c>
       <c r="T29">
-        <v>0.01571416395031978</v>
+        <v>0.006741577917381922</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H30">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I30">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J30">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N30">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O30">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P30">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q30">
-        <v>561586.5748998662</v>
+        <v>775249.9664726701</v>
       </c>
       <c r="R30">
-        <v>5054279.174098796</v>
+        <v>6977249.698254031</v>
       </c>
       <c r="S30">
-        <v>0.188474302463642</v>
+        <v>0.04450015368436048</v>
       </c>
       <c r="T30">
-        <v>0.188474302463642</v>
+        <v>0.04450015368436048</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>843.4949546666667</v>
+        <v>1033.423319666667</v>
       </c>
       <c r="H31">
-        <v>2530.484864</v>
+        <v>3100.269959</v>
       </c>
       <c r="I31">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="J31">
-        <v>0.3608367805054546</v>
+        <v>0.1043118251833239</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N31">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O31">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P31">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q31">
-        <v>124821.7248297162</v>
+        <v>234714.5632305442</v>
       </c>
       <c r="R31">
-        <v>1123395.523467446</v>
+        <v>2112431.069074898</v>
       </c>
       <c r="S31">
-        <v>0.04189147064953284</v>
+        <v>0.01347285983544119</v>
       </c>
       <c r="T31">
-        <v>0.04189147064953285</v>
+        <v>0.01347285983544119</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H32">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I32">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J32">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N32">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O32">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P32">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q32">
-        <v>4674.07832001401</v>
+        <v>326061.4345991045</v>
       </c>
       <c r="R32">
-        <v>42066.7048801261</v>
+        <v>2934552.91139194</v>
       </c>
       <c r="S32">
-        <v>0.001568669356424963</v>
+        <v>0.01871626517602012</v>
       </c>
       <c r="T32">
-        <v>0.001568669356424963</v>
+        <v>0.01871626517602012</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H33">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I33">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J33">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>502.283203</v>
       </c>
       <c r="O33">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P33">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q33">
-        <v>74850.90162757611</v>
+        <v>1248976.943893763</v>
       </c>
       <c r="R33">
-        <v>673658.114648185</v>
+        <v>11240792.49504386</v>
       </c>
       <c r="S33">
-        <v>0.02512074202547938</v>
+        <v>0.07169257446650229</v>
       </c>
       <c r="T33">
-        <v>0.02512074202547938</v>
+        <v>0.07169257446650228</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H34">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I34">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J34">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N34">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O34">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P34">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q34">
-        <v>101705.1128505091</v>
+        <v>3404554.718653763</v>
       </c>
       <c r="R34">
-        <v>915346.0156545821</v>
+        <v>30640992.46788387</v>
       </c>
       <c r="S34">
-        <v>0.03413329495083388</v>
+        <v>0.1954249787281326</v>
       </c>
       <c r="T34">
-        <v>0.03413329495083388</v>
+        <v>0.1954249787281326</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H35">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I35">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J35">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N35">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O35">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P35">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q35">
-        <v>24816.64104329741</v>
+        <v>847794.4463618842</v>
       </c>
       <c r="R35">
-        <v>223349.7693896767</v>
+        <v>7630150.017256957</v>
       </c>
       <c r="S35">
-        <v>0.008328723155392478</v>
+        <v>0.04866428221533002</v>
       </c>
       <c r="T35">
-        <v>0.008328723155392476</v>
+        <v>0.04866428221533001</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H36">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I36">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J36">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N36">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O36">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P36">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q36">
-        <v>297648.6133728347</v>
+        <v>5596165.114190708</v>
       </c>
       <c r="R36">
-        <v>2678837.520355512</v>
+        <v>50365486.02771637</v>
       </c>
       <c r="S36">
-        <v>0.0998939741298446</v>
+        <v>0.3212256928660212</v>
       </c>
       <c r="T36">
-        <v>0.0998939741298446</v>
+        <v>0.3212256928660212</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>447.0639343333333</v>
+        <v>7459.797200666667</v>
       </c>
       <c r="H37">
-        <v>1341.191803</v>
+        <v>22379.391602</v>
       </c>
       <c r="I37">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030249</v>
       </c>
       <c r="J37">
-        <v>0.1912484595817072</v>
+        <v>0.7529780359030248</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N37">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O37">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P37">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q37">
-        <v>66157.23198332355</v>
+        <v>1694294.108156644</v>
       </c>
       <c r="R37">
-        <v>595415.087849912</v>
+        <v>15248646.9734098</v>
       </c>
       <c r="S37">
-        <v>0.02220305596373191</v>
+        <v>0.09725424245101864</v>
       </c>
       <c r="T37">
-        <v>0.02220305596373191</v>
+        <v>0.09725424245101863</v>
       </c>
     </row>
   </sheetData>
